--- a/bots/crawl_ch/output/electronics_2022-08-28.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-28.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-28 07:01:30</t>
+          <t>2022-08-28 20:57:18</t>
         </is>
       </c>
     </row>
